--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.991866</v>
+        <v>3.560699333333333</v>
       </c>
       <c r="H2">
-        <v>11.975598</v>
+        <v>10.682098</v>
       </c>
       <c r="I2">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="J2">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.19179533333333</v>
+        <v>16.05260533333333</v>
       </c>
       <c r="N2">
-        <v>219.575386</v>
+        <v>48.157816</v>
       </c>
       <c r="O2">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="P2">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="Q2">
-        <v>292.171839270092</v>
+        <v>57.15850110866311</v>
       </c>
       <c r="R2">
-        <v>2629.546553430828</v>
+        <v>514.426509977968</v>
       </c>
       <c r="S2">
-        <v>0.1190363190470542</v>
+        <v>0.04410867361553662</v>
       </c>
       <c r="T2">
-        <v>0.1190363190470542</v>
+        <v>0.04410867361553662</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.991866</v>
+        <v>3.560699333333333</v>
       </c>
       <c r="H3">
-        <v>11.975598</v>
+        <v>10.682098</v>
       </c>
       <c r="I3">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="J3">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.672773</v>
       </c>
       <c r="O3">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="P3">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="Q3">
-        <v>28.838268554806</v>
+        <v>25.72340945752822</v>
       </c>
       <c r="R3">
-        <v>259.544416993254</v>
+        <v>231.510685117754</v>
       </c>
       <c r="S3">
-        <v>0.01174925463395238</v>
+        <v>0.01985051129811648</v>
       </c>
       <c r="T3">
-        <v>0.01174925463395238</v>
+        <v>0.01985051129811648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.991866</v>
+        <v>3.560699333333333</v>
       </c>
       <c r="H4">
-        <v>11.975598</v>
+        <v>10.682098</v>
       </c>
       <c r="I4">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="J4">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.794787</v>
+        <v>2.098187333333334</v>
       </c>
       <c r="N4">
-        <v>8.384361</v>
+        <v>6.294562000000001</v>
       </c>
       <c r="O4">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="P4">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="Q4">
-        <v>11.156415202542</v>
+        <v>7.471014239008445</v>
       </c>
       <c r="R4">
-        <v>100.407736822878</v>
+        <v>67.239128151076</v>
       </c>
       <c r="S4">
-        <v>0.00454533401572469</v>
+        <v>0.005765310885584169</v>
       </c>
       <c r="T4">
-        <v>0.00454533401572469</v>
+        <v>0.005765310885584169</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.991866</v>
+        <v>3.560699333333333</v>
       </c>
       <c r="H5">
-        <v>11.975598</v>
+        <v>10.682098</v>
       </c>
       <c r="I5">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="J5">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>81.09049733333333</v>
+        <v>66.20156266666667</v>
       </c>
       <c r="N5">
-        <v>243.271492</v>
+        <v>198.604688</v>
       </c>
       <c r="O5">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378943</v>
       </c>
       <c r="P5">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378942</v>
       </c>
       <c r="Q5">
-        <v>323.702399228024</v>
+        <v>235.7238600528249</v>
       </c>
       <c r="R5">
-        <v>2913.321593052216</v>
+        <v>2121.514740475424</v>
       </c>
       <c r="S5">
-        <v>0.1318824639878575</v>
+        <v>0.1819058688522645</v>
       </c>
       <c r="T5">
-        <v>0.1318824639878575</v>
+        <v>0.1819058688522645</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9.14021</v>
       </c>
       <c r="I6">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="J6">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>73.19179533333333</v>
+        <v>16.05260533333333</v>
       </c>
       <c r="N6">
-        <v>219.575386</v>
+        <v>48.157816</v>
       </c>
       <c r="O6">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="P6">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="Q6">
-        <v>222.9961265412289</v>
+        <v>48.90806126459555</v>
       </c>
       <c r="R6">
-        <v>2006.96513887106</v>
+        <v>440.1725513813599</v>
       </c>
       <c r="S6">
-        <v>0.0908528287035917</v>
+        <v>0.03774188737712984</v>
       </c>
       <c r="T6">
-        <v>0.0908528287035917</v>
+        <v>0.03774188737712984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9.14021</v>
       </c>
       <c r="I7">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="J7">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.672773</v>
       </c>
       <c r="O7">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="P7">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="Q7">
         <v>22.01041072248111</v>
@@ -883,10 +883,10 @@
         <v>198.09369650233</v>
       </c>
       <c r="S7">
-        <v>0.008967456547706249</v>
+        <v>0.01698522536229841</v>
       </c>
       <c r="T7">
-        <v>0.008967456547706249</v>
+        <v>0.01698522536229842</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>9.14021</v>
       </c>
       <c r="I8">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="J8">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.794787</v>
+        <v>2.098187333333334</v>
       </c>
       <c r="N8">
-        <v>8.384361</v>
+        <v>6.294562000000001</v>
       </c>
       <c r="O8">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="P8">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="Q8">
-        <v>8.514980028423333</v>
+        <v>6.392624282002223</v>
       </c>
       <c r="R8">
-        <v>76.63482025581</v>
+        <v>57.53361853802001</v>
       </c>
       <c r="S8">
-        <v>0.003469163495957943</v>
+        <v>0.004933127575643405</v>
       </c>
       <c r="T8">
-        <v>0.003469163495957943</v>
+        <v>0.004933127575643406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>9.14021</v>
       </c>
       <c r="I9">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="J9">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>81.09049733333333</v>
+        <v>66.20156266666667</v>
       </c>
       <c r="N9">
-        <v>243.271492</v>
+        <v>198.604688</v>
       </c>
       <c r="O9">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378943</v>
       </c>
       <c r="P9">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378942</v>
       </c>
       <c r="Q9">
-        <v>247.0613915437022</v>
+        <v>201.6987283671644</v>
       </c>
       <c r="R9">
-        <v>2223.55252389332</v>
+        <v>1815.28855530448</v>
       </c>
       <c r="S9">
-        <v>0.1006574716491364</v>
+        <v>0.1556489971859606</v>
       </c>
       <c r="T9">
-        <v>0.1006574716491364</v>
+        <v>0.1556489971859606</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.563122666666667</v>
+        <v>4.835201333333333</v>
       </c>
       <c r="H10">
-        <v>13.689368</v>
+        <v>14.505604</v>
       </c>
       <c r="I10">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743455</v>
       </c>
       <c r="J10">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743456</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>73.19179533333333</v>
+        <v>16.05260533333333</v>
       </c>
       <c r="N10">
-        <v>219.575386</v>
+        <v>48.157816</v>
       </c>
       <c r="O10">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="P10">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="Q10">
-        <v>333.9831402995609</v>
+        <v>77.6175787112071</v>
       </c>
       <c r="R10">
-        <v>3005.848262696048</v>
+        <v>698.5582084008639</v>
       </c>
       <c r="S10">
-        <v>0.1360710318432979</v>
+        <v>0.05989674991113379</v>
       </c>
       <c r="T10">
-        <v>0.1360710318432979</v>
+        <v>0.05989674991113379</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.563122666666667</v>
+        <v>4.835201333333333</v>
       </c>
       <c r="H11">
-        <v>13.689368</v>
+        <v>14.505604</v>
       </c>
       <c r="I11">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743455</v>
       </c>
       <c r="J11">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743456</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.672773</v>
       </c>
       <c r="O11">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="P11">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="Q11">
-        <v>32.96517390860711</v>
+        <v>34.93074030221022</v>
       </c>
       <c r="R11">
-        <v>296.686565177464</v>
+        <v>314.376662719892</v>
       </c>
       <c r="S11">
-        <v>0.01343063372784218</v>
+        <v>0.02695572125325976</v>
       </c>
       <c r="T11">
-        <v>0.01343063372784218</v>
+        <v>0.02695572125325976</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.563122666666667</v>
+        <v>4.835201333333333</v>
       </c>
       <c r="H12">
-        <v>13.689368</v>
+        <v>14.505604</v>
       </c>
       <c r="I12">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743455</v>
       </c>
       <c r="J12">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743456</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.794787</v>
+        <v>2.098187333333334</v>
       </c>
       <c r="N12">
-        <v>8.384361</v>
+        <v>6.294562000000001</v>
       </c>
       <c r="O12">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="P12">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="Q12">
-        <v>12.75295590820533</v>
+        <v>10.14515819171645</v>
       </c>
       <c r="R12">
-        <v>114.776603173848</v>
+        <v>91.30642372544801</v>
       </c>
       <c r="S12">
-        <v>0.005195794817442356</v>
+        <v>0.007828922431077983</v>
       </c>
       <c r="T12">
-        <v>0.005195794817442356</v>
+        <v>0.007828922431077984</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.563122666666667</v>
+        <v>4.835201333333333</v>
       </c>
       <c r="H13">
-        <v>13.689368</v>
+        <v>14.505604</v>
       </c>
       <c r="I13">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743455</v>
       </c>
       <c r="J13">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>81.09049733333333</v>
+        <v>66.20156266666667</v>
       </c>
       <c r="N13">
-        <v>243.271492</v>
+        <v>198.604688</v>
       </c>
       <c r="O13">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378943</v>
       </c>
       <c r="P13">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378942</v>
       </c>
       <c r="Q13">
-        <v>370.0258864330062</v>
+        <v>320.0978840746169</v>
       </c>
       <c r="R13">
-        <v>3330.232977897056</v>
+        <v>2880.880956671552</v>
       </c>
       <c r="S13">
-        <v>0.1507555265529561</v>
+        <v>0.247016503578874</v>
       </c>
       <c r="T13">
-        <v>0.1507555265529561</v>
+        <v>0.247016503578874</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.337145333333333</v>
+        <v>2.707878</v>
       </c>
       <c r="H14">
-        <v>10.011436</v>
+        <v>8.123634000000001</v>
       </c>
       <c r="I14">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="J14">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.19179533333333</v>
+        <v>16.05260533333333</v>
       </c>
       <c r="N14">
-        <v>219.575386</v>
+        <v>48.157816</v>
       </c>
       <c r="O14">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="P14">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="Q14">
-        <v>244.2516582349218</v>
+        <v>43.46849682481601</v>
       </c>
       <c r="R14">
-        <v>2198.264924114296</v>
+        <v>391.216471423344</v>
       </c>
       <c r="S14">
-        <v>0.09951273329441788</v>
+        <v>0.03354422704959983</v>
       </c>
       <c r="T14">
-        <v>0.09951273329441787</v>
+        <v>0.03354422704959983</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.337145333333333</v>
+        <v>2.707878</v>
       </c>
       <c r="H15">
-        <v>10.011436</v>
+        <v>8.123634000000001</v>
       </c>
       <c r="I15">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="J15">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.672773</v>
       </c>
       <c r="O15">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="P15">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="Q15">
-        <v>24.10839775911422</v>
+        <v>19.562408401898</v>
       </c>
       <c r="R15">
-        <v>216.975579832028</v>
+        <v>176.061675617082</v>
       </c>
       <c r="S15">
-        <v>0.009822216044285861</v>
+        <v>0.01509612517117547</v>
       </c>
       <c r="T15">
-        <v>0.00982221604428586</v>
+        <v>0.01509612517117547</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.337145333333333</v>
+        <v>2.707878</v>
       </c>
       <c r="H16">
-        <v>10.011436</v>
+        <v>8.123634000000001</v>
       </c>
       <c r="I16">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="J16">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.794787</v>
+        <v>2.098187333333334</v>
       </c>
       <c r="N16">
-        <v>8.384361</v>
+        <v>6.294562000000001</v>
       </c>
       <c r="O16">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="P16">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="Q16">
-        <v>9.326610394710666</v>
+        <v>5.681635319812002</v>
       </c>
       <c r="R16">
-        <v>83.939493552396</v>
+        <v>51.13471787830801</v>
       </c>
       <c r="S16">
-        <v>0.003799837018331002</v>
+        <v>0.00438446413154997</v>
       </c>
       <c r="T16">
-        <v>0.003799837018331002</v>
+        <v>0.00438446413154997</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.337145333333333</v>
+        <v>2.707878</v>
       </c>
       <c r="H17">
-        <v>10.011436</v>
+        <v>8.123634000000001</v>
       </c>
       <c r="I17">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="J17">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>81.09049733333333</v>
+        <v>66.20156266666667</v>
       </c>
       <c r="N17">
-        <v>243.271492</v>
+        <v>198.604688</v>
       </c>
       <c r="O17">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378943</v>
       </c>
       <c r="P17">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378942</v>
       </c>
       <c r="Q17">
-        <v>270.6107747536124</v>
+        <v>179.265755110688</v>
       </c>
       <c r="R17">
-        <v>2435.496972782512</v>
+        <v>1613.391795996192</v>
       </c>
       <c r="S17">
-        <v>0.1102519346204456</v>
+        <v>0.1383376843207951</v>
       </c>
       <c r="T17">
-        <v>0.1102519346204456</v>
+        <v>0.1383376843207951</v>
       </c>
     </row>
   </sheetData>
